--- a/xlsx/country_comparison/solidarity_support_extended_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_extended_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -65,27 +68,27 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -461,13 +464,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.607952871870398</v>
+        <v>0.605583686875599</v>
       </c>
       <c r="C2" t="n">
         <v>0.675828047921071</v>
@@ -497,18 +503,21 @@
         <v>0.468266623747489</v>
       </c>
       <c r="L2" t="n">
+        <v>0.573952839504226</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.624277119259104</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.595592046394442</v>
+      <c r="N2" t="n">
+        <v>0.595441917895224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.538586156111929</v>
+        <v>0.540988093608868</v>
       </c>
       <c r="C3" t="n">
         <v>0.585623678646934</v>
@@ -538,18 +547,21 @@
         <v>0.380169621797873</v>
       </c>
       <c r="L3" t="n">
+        <v>0.572838020267568</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.672003576449909</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.528185312888607</v>
+      <c r="N3" t="n">
+        <v>0.528398111147994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5240058910162</v>
+        <v>0.528944847406596</v>
       </c>
       <c r="C4" t="n">
         <v>0.561663143058492</v>
@@ -579,182 +591,197 @@
         <v>0.374045379462791</v>
       </c>
       <c r="L4" t="n">
+        <v>0.594965697314265</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.712886788734677</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.499269086006967</v>
+      <c r="N4" t="n">
+        <v>0.49932861507328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.488659793814433</v>
+        <v>0.487204050910086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.548978153629316</v>
+        <v>0.516560958421424</v>
       </c>
       <c r="D5" t="n">
-        <v>0.572441643469511</v>
+        <v>0.46984726554592</v>
       </c>
       <c r="E5" t="n">
-        <v>0.545688255030839</v>
+        <v>0.449136424403242</v>
       </c>
       <c r="F5" t="n">
-        <v>0.658945367609779</v>
+        <v>0.620418621743099</v>
       </c>
       <c r="G5" t="n">
-        <v>0.446658827175329</v>
+        <v>0.519362173741282</v>
       </c>
       <c r="H5" t="n">
-        <v>0.524794616242944</v>
+        <v>0.565471420059344</v>
       </c>
       <c r="I5" t="n">
-        <v>0.556188134759176</v>
+        <v>0.523374569882964</v>
       </c>
       <c r="J5" t="n">
-        <v>0.461310668853147</v>
+        <v>0.490341316203245</v>
       </c>
       <c r="K5" t="n">
-        <v>0.364008514246129</v>
+        <v>0.332814324343931</v>
       </c>
       <c r="L5" t="n">
-        <v>0.567119980607023</v>
+        <v>0.508667595717108</v>
       </c>
       <c r="M5" t="n">
-        <v>0.458262999092803</v>
+        <v>0.685180395151638</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4655618778736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.485567010309278</v>
+        <v>0.478171616258382</v>
       </c>
       <c r="C6" t="n">
-        <v>0.516560958421424</v>
+        <v>0.548978153629316</v>
       </c>
       <c r="D6" t="n">
-        <v>0.46984726554592</v>
+        <v>0.572441643469511</v>
       </c>
       <c r="E6" t="n">
-        <v>0.449136424403242</v>
+        <v>0.545688255030839</v>
       </c>
       <c r="F6" t="n">
-        <v>0.620418621743099</v>
+        <v>0.658945367609779</v>
       </c>
       <c r="G6" t="n">
-        <v>0.519362173741282</v>
+        <v>0.446658827175329</v>
       </c>
       <c r="H6" t="n">
-        <v>0.565471420059344</v>
+        <v>0.524794616242944</v>
       </c>
       <c r="I6" t="n">
-        <v>0.523374569882964</v>
+        <v>0.556188134759176</v>
       </c>
       <c r="J6" t="n">
-        <v>0.490341316203245</v>
+        <v>0.461310668853147</v>
       </c>
       <c r="K6" t="n">
-        <v>0.332814324343931</v>
+        <v>0.364008514246129</v>
       </c>
       <c r="L6" t="n">
-        <v>0.685180395151638</v>
+        <v>0.341022488515294</v>
       </c>
       <c r="M6" t="n">
-        <v>0.465494905331093</v>
+        <v>0.567119980607023</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.458128546515251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.472017673048601</v>
+        <v>0.477487340905981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.538759689922481</v>
+        <v>0.501409443269908</v>
       </c>
       <c r="D7" t="n">
-        <v>0.52977181208985</v>
+        <v>0.488295669245107</v>
       </c>
       <c r="E7" t="n">
-        <v>0.525304380591818</v>
+        <v>0.472919459698832</v>
       </c>
       <c r="F7" t="n">
-        <v>0.617252086958905</v>
+        <v>0.564424611143534</v>
       </c>
       <c r="G7" t="n">
-        <v>0.490314971827439</v>
+        <v>0.405066112938175</v>
       </c>
       <c r="H7" t="n">
-        <v>0.554091313479052</v>
+        <v>0.580181999133729</v>
       </c>
       <c r="I7" t="n">
-        <v>0.529583432342827</v>
+        <v>0.497865923446029</v>
       </c>
       <c r="J7" t="n">
-        <v>0.504365824054247</v>
+        <v>0.492340832264751</v>
       </c>
       <c r="K7" t="n">
-        <v>0.301602146148853</v>
+        <v>0.300548564690559</v>
       </c>
       <c r="L7" t="n">
-        <v>0.60469307603435</v>
+        <v>0.574800835942304</v>
       </c>
       <c r="M7" t="n">
-        <v>0.437412231331744</v>
+        <v>0.671196571821645</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.458286733858569</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.470103092783505</v>
+        <v>0.473929109073491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.501409443269908</v>
+        <v>0.522198731501057</v>
       </c>
       <c r="D8" t="n">
-        <v>0.488295669245107</v>
+        <v>0.499553124399261</v>
       </c>
       <c r="E8" t="n">
-        <v>0.472919459698832</v>
+        <v>0.527639902311216</v>
       </c>
       <c r="F8" t="n">
-        <v>0.564424611143534</v>
+        <v>0.601436891606279</v>
       </c>
       <c r="G8" t="n">
-        <v>0.405066112938175</v>
+        <v>0.445671106142509</v>
       </c>
       <c r="H8" t="n">
-        <v>0.580181999133729</v>
+        <v>0.545641156757768</v>
       </c>
       <c r="I8" t="n">
-        <v>0.497865923446029</v>
+        <v>0.506066076239562</v>
       </c>
       <c r="J8" t="n">
-        <v>0.492340832264751</v>
+        <v>0.517911936527468</v>
       </c>
       <c r="K8" t="n">
-        <v>0.300548564690559</v>
+        <v>0.289612635582178</v>
       </c>
       <c r="L8" t="n">
-        <v>0.671196571821645</v>
+        <v>0.585085449440321</v>
       </c>
       <c r="M8" t="n">
-        <v>0.458287241230885</v>
+        <v>0.641734483529905</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.431123157706663</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.466126656848306</v>
+        <v>0.465444094703709</v>
       </c>
       <c r="C9" t="n">
         <v>0.530655391120507</v>
@@ -784,59 +811,65 @@
         <v>0.266453081987289</v>
       </c>
       <c r="L9" t="n">
+        <v>0.457115830378939</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.598511005468507</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.45785934054788</v>
+      <c r="N9" t="n">
+        <v>0.457869676479742</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465537555228277</v>
+        <v>0.463821638626727</v>
       </c>
       <c r="C10" t="n">
-        <v>0.522198731501057</v>
+        <v>0.538759689922481</v>
       </c>
       <c r="D10" t="n">
-        <v>0.499553124399261</v>
+        <v>0.52977181208985</v>
       </c>
       <c r="E10" t="n">
-        <v>0.527639902311216</v>
+        <v>0.525304380591818</v>
       </c>
       <c r="F10" t="n">
-        <v>0.601436891606279</v>
+        <v>0.617252086958905</v>
       </c>
       <c r="G10" t="n">
-        <v>0.445671106142509</v>
+        <v>0.490314971827439</v>
       </c>
       <c r="H10" t="n">
-        <v>0.545641156757768</v>
+        <v>0.554091313479052</v>
       </c>
       <c r="I10" t="n">
-        <v>0.506066076239562</v>
+        <v>0.529583432342827</v>
       </c>
       <c r="J10" t="n">
-        <v>0.517911936527468</v>
+        <v>0.504365824054247</v>
       </c>
       <c r="K10" t="n">
-        <v>0.289612635582178</v>
+        <v>0.301602146148853</v>
       </c>
       <c r="L10" t="n">
-        <v>0.641734483529905</v>
+        <v>0.356274513713276</v>
       </c>
       <c r="M10" t="n">
-        <v>0.431119607156191</v>
+        <v>0.60469307603435</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.437206606903224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.387628865979381</v>
+        <v>0.384152182838374</v>
       </c>
       <c r="C11" t="n">
         <v>0.42600422832981</v>
@@ -866,10 +899,13 @@
         <v>0.242119668148945</v>
       </c>
       <c r="L11" t="n">
+        <v>0.339240679877308</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.54630217154287</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.368150083400531</v>
+      <c r="N11" t="n">
+        <v>0.368011157501557</v>
       </c>
     </row>
   </sheetData>
